--- a/in/etl_example_empty.xlsx
+++ b/in/etl_example_empty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-3000" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,18 +60,9 @@
     <t>TARGET_TABLE_EXTRA_KEY_COLUMNS</t>
   </si>
   <si>
-    <t>DATA_PARTITION</t>
-  </si>
-  <si>
     <t>DATA_PARTITION_COLUMN</t>
   </si>
   <si>
-    <t>INDEX_DATA_PARTITION</t>
-  </si>
-  <si>
-    <t>INDEX_DATA_PARTITION_COLUMN</t>
-  </si>
-  <si>
     <t>STORED_PROCEDURE_NAME</t>
   </si>
   <si>
@@ -88,6 +79,15 @@
   </si>
   <si>
     <t>SOURCE_TYPE</t>
+  </si>
+  <si>
+    <t>DATA_PARTITION_FUNCTION</t>
+  </si>
+  <si>
+    <t>INDEX_PARTITION_FUNCTION</t>
+  </si>
+  <si>
+    <t>INDEX_PARTITION_COLUMN</t>
   </si>
 </sst>
 </file>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -501,7 +501,7 @@
     <col min="13" max="13" width="33.5" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
     <col min="15" max="15" width="31.1640625" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" customWidth="1"/>
     <col min="17" max="17" width="31.1640625" customWidth="1"/>
     <col min="18" max="18" width="25.5" customWidth="1"/>
     <col min="19" max="19" width="33.6640625" customWidth="1"/>
@@ -552,34 +552,34 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
